--- a/datos/ValoresTabla/ListaValores.xlsx
+++ b/datos/ValoresTabla/ListaValores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Android\Proy_Android_Studio\DimDucto2\Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Android\Proy_Android_Studio\HVACTOOLS_v2\datos\ValoresTabla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC38A44-25EE-43F3-ACDC-FC716A37D97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B3C3D2-3E1C-46C5-9E58-B483DC99CECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DAF68F5B-3AC7-4AF7-8647-90CC53AC0645}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{DAF68F5B-3AC7-4AF7-8647-90CC53AC0645}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -176,21 +176,6 @@
   <dxfs count="4">
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -207,6 +192,21 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -262,8 +262,8 @@
     <tableColumn id="5" xr3:uid="{C9F92167-6BD7-47B8-A653-34C4FE8B3691}" name="Columna5">
       <calculatedColumnFormula>F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1E68C191-494E-453B-BB33-24713E293747}" name="Columna6" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{EE87BCC8-F6C6-4AC0-BD3C-D2874FD947A1}" name="Columna7" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{1E68C191-494E-453B-BB33-24713E293747}" name="Columna6" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{EE87BCC8-F6C6-4AC0-BD3C-D2874FD947A1}" name="Columna7" dataDxfId="0">
       <calculatedColumnFormula>H2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -571,15 +571,15 @@
   <dimension ref="B1:H1108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B1088" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1096" sqref="E1096"/>
+      <selection pane="bottomRight" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" customWidth="1"/>
     <col min="3" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="12" style="9" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" customWidth="1"/>
